--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -11,119 +16,71 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Shipping Name</t>
-  </si>
-  <si>
-    <t>Shipping Address1</t>
-  </si>
-  <si>
-    <t>Shipping Address2</t>
-  </si>
-  <si>
-    <t>Shipping City</t>
-  </si>
-  <si>
-    <t>Shipping Zip</t>
-  </si>
-  <si>
-    <t>Shipping Province</t>
-  </si>
-  <si>
-    <t>Shipping Country</t>
-  </si>
-  <si>
-    <t>Shipping Phone</t>
-  </si>
-  <si>
-    <t>Base cost</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>Lineitem quantity</t>
-  </si>
-  <si>
-    <t>Lineitem name</t>
-  </si>
-  <si>
-    <t>Lineitem sku</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>dress</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t xml:space="preserve">#MJ10061	</t>
   </si>
   <si>
-    <t>Kreistein  Patacsil</t>
-  </si>
-  <si>
-    <t>7814 Comanche Avenue</t>
-  </si>
-  <si>
-    <t>Winnetka</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>Luminous Glow Phone case iPhone Samsung dah230818</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Galaxy S8+</t>
   </si>
   <si>
     <t xml:space="preserve">#TMT13396	</t>
   </si>
   <si>
-    <t>7815 Comanche Avenue</t>
-  </si>
-  <si>
-    <t>Luminous Glow Phone case iPhone Samsung dah230819</t>
-  </si>
-  <si>
     <t xml:space="preserve">#TMT11690	</t>
   </si>
   <si>
-    <t>7816 Comanche Avenue</t>
-  </si>
-  <si>
-    <t>Luminous Glow Phone case iPhone Samsung dah230820</t>
-  </si>
-  <si>
     <t xml:space="preserve">#MJ10039	</t>
   </si>
   <si>
-    <t>7817 Comanche Avenue</t>
-  </si>
-  <si>
-    <t>Luminous Glow Phone case iPhone Samsung dah230821</t>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>j01</t>
+  </si>
+  <si>
+    <t>j02</t>
+  </si>
+  <si>
+    <t>j03</t>
+  </si>
+  <si>
+    <t>j04</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,9 +125,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,6 +132,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -240,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,254 +441,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="4">
+        <f ca="1">NOW()</f>
+        <v>43972.388913541668</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
+        <v>43972.388913541668</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43972.388913541668</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43972.388913541668</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3">
-        <v>91308</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3">
-        <v>8183262941</v>
-      </c>
-      <c r="L2" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3">
-        <v>91309</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3">
-        <v>8183262941</v>
-      </c>
-      <c r="L3" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>91310</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8183262941</v>
-      </c>
-      <c r="L4" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3">
-        <v>91311</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3">
-        <v>8183262941</v>
-      </c>
-      <c r="L5" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t xml:space="preserve">#MJ10061	</t>
   </si>
@@ -74,7 +74,10 @@
     <t>case</t>
   </si>
   <si>
-    <t>glass</t>
+    <t>j05</t>
+  </si>
+  <si>
+    <t>luminous</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +496,10 @@
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()</f>
-        <v>43972.388913541668</v>
+        <v>43973.695084953702</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -517,10 +520,10 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
-        <v>43972.388913541668</v>
+        <v>43973.695084953702</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -541,10 +544,10 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43972.388913541668</v>
+        <v>43973.695084953702</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -565,10 +568,34 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43972.388913541668</v>
+        <v>43973.695084953702</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">NOW()</f>
+        <v>43973.695084953702</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,31 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">#MJ10061	</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>US</t>
   </si>
   <si>
-    <t xml:space="preserve"> Galaxy S8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#TMT13396	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#TMT11690	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#MJ10039	</t>
-  </si>
-  <si>
     <t>sku</t>
   </si>
   <si>
@@ -78,12 +58,39 @@
   </si>
   <si>
     <t>luminous</t>
+  </si>
+  <si>
+    <t>hdz11</t>
+  </si>
+  <si>
+    <t>hdz12</t>
+  </si>
+  <si>
+    <t>hdz13</t>
+  </si>
+  <si>
+    <t>hdz14</t>
+  </si>
+  <si>
+    <t>hdz15</t>
+  </si>
+  <si>
+    <t>iphone7</t>
+  </si>
+  <si>
+    <t>iphone8</t>
+  </si>
+  <si>
+    <t>iphone11</t>
+  </si>
+  <si>
+    <t>samsung s10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -457,145 +464,145 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()</f>
-        <v>43973.695084953702</v>
+        <v>43975.811430092595</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
-        <v>43973.695084953702</v>
+        <v>43975.811430092595</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43973.695084953702</v>
+        <v>43975.811430092595</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43973.695084953702</v>
+        <v>43975.811430092595</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">NOW()</f>
-        <v>43973.695084953702</v>
+        <v>43975.811430092595</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>US</t>
   </si>
@@ -24,18 +29,6 @@
     <t>sku</t>
   </si>
   <si>
-    <t>j01</t>
-  </si>
-  <si>
-    <t>j02</t>
-  </si>
-  <si>
-    <t>j03</t>
-  </si>
-  <si>
-    <t>j04</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -54,27 +47,6 @@
     <t>case</t>
   </si>
   <si>
-    <t>j05</t>
-  </si>
-  <si>
-    <t>luminous</t>
-  </si>
-  <si>
-    <t>hdz11</t>
-  </si>
-  <si>
-    <t>hdz12</t>
-  </si>
-  <si>
-    <t>hdz13</t>
-  </si>
-  <si>
-    <t>hdz14</t>
-  </si>
-  <si>
-    <t>hdz15</t>
-  </si>
-  <si>
     <t>iphone7</t>
   </si>
   <si>
@@ -85,12 +57,33 @@
   </si>
   <si>
     <t>samsung s10</t>
+  </si>
+  <si>
+    <t>fb01</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>glass01</t>
+  </si>
+  <si>
+    <t>glass03</t>
+  </si>
+  <si>
+    <t>glass04</t>
+  </si>
+  <si>
+    <t>glass05</t>
+  </si>
+  <si>
+    <t>samsung s9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +447,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,25 +457,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -493,17 +486,17 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()</f>
-        <v>43975.811430092595</v>
+        <v>43979.743121064814</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -520,14 +513,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F5" ca="1" si="0">NOW()</f>
-        <v>43975.811430092595</v>
+        <f ca="1">NOW()</f>
+        <v>43979.743121064814</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -535,7 +528,7 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -544,14 +537,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43975.811430092595</v>
+        <f ca="1">NOW()</f>
+        <v>43979.743121064814</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -559,7 +552,7 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -568,14 +561,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43975.811430092595</v>
+        <f ca="1">NOW()</f>
+        <v>43979.743121064814</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -583,7 +576,7 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -595,11 +588,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
         <f ca="1">NOW()</f>
-        <v>43975.811430092595</v>
+        <v>43979.743121064814</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -83,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +442,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +491,7 @@
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.743121064814</v>
+        <v>43979.93230104167</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -520,7 +515,7 @@
       </c>
       <c r="F3" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.743121064814</v>
+        <v>43979.93230104167</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -544,7 +539,7 @@
       </c>
       <c r="F4" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.743121064814</v>
+        <v>43979.93230104167</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -568,7 +563,7 @@
       </c>
       <c r="F5" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.743121064814</v>
+        <v>43979.93230104167</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -592,7 +587,7 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.743121064814</v>
+        <v>43979.93230104167</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="233">
   <si>
     <t>US</t>
   </si>
@@ -73,6 +73,648 @@
   </si>
   <si>
     <t>samsung s9</t>
+  </si>
+  <si>
+    <t>glass06</t>
+  </si>
+  <si>
+    <t>iphone14</t>
+  </si>
+  <si>
+    <t>glass07</t>
+  </si>
+  <si>
+    <t>iphone17</t>
+  </si>
+  <si>
+    <t>glass08</t>
+  </si>
+  <si>
+    <t>iphone20</t>
+  </si>
+  <si>
+    <t>glass09</t>
+  </si>
+  <si>
+    <t>iphone23</t>
+  </si>
+  <si>
+    <t>glass10</t>
+  </si>
+  <si>
+    <t>iphone26</t>
+  </si>
+  <si>
+    <t>glass11</t>
+  </si>
+  <si>
+    <t>iphone29</t>
+  </si>
+  <si>
+    <t>glass12</t>
+  </si>
+  <si>
+    <t>iphone32</t>
+  </si>
+  <si>
+    <t>glass13</t>
+  </si>
+  <si>
+    <t>iphone35</t>
+  </si>
+  <si>
+    <t>glass14</t>
+  </si>
+  <si>
+    <t>iphone38</t>
+  </si>
+  <si>
+    <t>glass15</t>
+  </si>
+  <si>
+    <t>iphone41</t>
+  </si>
+  <si>
+    <t>glass16</t>
+  </si>
+  <si>
+    <t>iphone44</t>
+  </si>
+  <si>
+    <t>glass17</t>
+  </si>
+  <si>
+    <t>iphone47</t>
+  </si>
+  <si>
+    <t>glass18</t>
+  </si>
+  <si>
+    <t>iphone50</t>
+  </si>
+  <si>
+    <t>glass19</t>
+  </si>
+  <si>
+    <t>iphone53</t>
+  </si>
+  <si>
+    <t>glass20</t>
+  </si>
+  <si>
+    <t>iphone56</t>
+  </si>
+  <si>
+    <t>glass21</t>
+  </si>
+  <si>
+    <t>iphone59</t>
+  </si>
+  <si>
+    <t>glass22</t>
+  </si>
+  <si>
+    <t>iphone62</t>
+  </si>
+  <si>
+    <t>glass23</t>
+  </si>
+  <si>
+    <t>iphone65</t>
+  </si>
+  <si>
+    <t>glass24</t>
+  </si>
+  <si>
+    <t>iphone68</t>
+  </si>
+  <si>
+    <t>glass25</t>
+  </si>
+  <si>
+    <t>iphone71</t>
+  </si>
+  <si>
+    <t>glass26</t>
+  </si>
+  <si>
+    <t>iphone74</t>
+  </si>
+  <si>
+    <t>glass27</t>
+  </si>
+  <si>
+    <t>iphone77</t>
+  </si>
+  <si>
+    <t>glass28</t>
+  </si>
+  <si>
+    <t>iphone80</t>
+  </si>
+  <si>
+    <t>glass29</t>
+  </si>
+  <si>
+    <t>iphone83</t>
+  </si>
+  <si>
+    <t>glass30</t>
+  </si>
+  <si>
+    <t>iphone86</t>
+  </si>
+  <si>
+    <t>glass31</t>
+  </si>
+  <si>
+    <t>iphone89</t>
+  </si>
+  <si>
+    <t>glass32</t>
+  </si>
+  <si>
+    <t>iphone92</t>
+  </si>
+  <si>
+    <t>glass33</t>
+  </si>
+  <si>
+    <t>iphone95</t>
+  </si>
+  <si>
+    <t>glass34</t>
+  </si>
+  <si>
+    <t>iphone98</t>
+  </si>
+  <si>
+    <t>glass35</t>
+  </si>
+  <si>
+    <t>iphone101</t>
+  </si>
+  <si>
+    <t>glass36</t>
+  </si>
+  <si>
+    <t>iphone104</t>
+  </si>
+  <si>
+    <t>glass37</t>
+  </si>
+  <si>
+    <t>iphone107</t>
+  </si>
+  <si>
+    <t>glass38</t>
+  </si>
+  <si>
+    <t>iphone110</t>
+  </si>
+  <si>
+    <t>glass39</t>
+  </si>
+  <si>
+    <t>iphone113</t>
+  </si>
+  <si>
+    <t>glass40</t>
+  </si>
+  <si>
+    <t>iphone116</t>
+  </si>
+  <si>
+    <t>glass41</t>
+  </si>
+  <si>
+    <t>iphone119</t>
+  </si>
+  <si>
+    <t>glass42</t>
+  </si>
+  <si>
+    <t>iphone122</t>
+  </si>
+  <si>
+    <t>glass43</t>
+  </si>
+  <si>
+    <t>iphone125</t>
+  </si>
+  <si>
+    <t>glass44</t>
+  </si>
+  <si>
+    <t>iphone128</t>
+  </si>
+  <si>
+    <t>glass45</t>
+  </si>
+  <si>
+    <t>iphone131</t>
+  </si>
+  <si>
+    <t>glass46</t>
+  </si>
+  <si>
+    <t>iphone134</t>
+  </si>
+  <si>
+    <t>glass47</t>
+  </si>
+  <si>
+    <t>iphone137</t>
+  </si>
+  <si>
+    <t>glass48</t>
+  </si>
+  <si>
+    <t>iphone140</t>
+  </si>
+  <si>
+    <t>glass49</t>
+  </si>
+  <si>
+    <t>iphone143</t>
+  </si>
+  <si>
+    <t>glass50</t>
+  </si>
+  <si>
+    <t>iphone146</t>
+  </si>
+  <si>
+    <t>glass51</t>
+  </si>
+  <si>
+    <t>iphone149</t>
+  </si>
+  <si>
+    <t>glass52</t>
+  </si>
+  <si>
+    <t>iphone152</t>
+  </si>
+  <si>
+    <t>glass53</t>
+  </si>
+  <si>
+    <t>iphone155</t>
+  </si>
+  <si>
+    <t>glass54</t>
+  </si>
+  <si>
+    <t>iphone158</t>
+  </si>
+  <si>
+    <t>glass55</t>
+  </si>
+  <si>
+    <t>iphone161</t>
+  </si>
+  <si>
+    <t>glass56</t>
+  </si>
+  <si>
+    <t>iphone164</t>
+  </si>
+  <si>
+    <t>glass57</t>
+  </si>
+  <si>
+    <t>iphone167</t>
+  </si>
+  <si>
+    <t>glass58</t>
+  </si>
+  <si>
+    <t>iphone170</t>
+  </si>
+  <si>
+    <t>glass59</t>
+  </si>
+  <si>
+    <t>iphone173</t>
+  </si>
+  <si>
+    <t>glass60</t>
+  </si>
+  <si>
+    <t>iphone176</t>
+  </si>
+  <si>
+    <t>glass61</t>
+  </si>
+  <si>
+    <t>iphone179</t>
+  </si>
+  <si>
+    <t>glass62</t>
+  </si>
+  <si>
+    <t>iphone182</t>
+  </si>
+  <si>
+    <t>glass63</t>
+  </si>
+  <si>
+    <t>iphone185</t>
+  </si>
+  <si>
+    <t>glass64</t>
+  </si>
+  <si>
+    <t>iphone188</t>
+  </si>
+  <si>
+    <t>glass65</t>
+  </si>
+  <si>
+    <t>iphone191</t>
+  </si>
+  <si>
+    <t>glass66</t>
+  </si>
+  <si>
+    <t>iphone194</t>
+  </si>
+  <si>
+    <t>glass67</t>
+  </si>
+  <si>
+    <t>iphone197</t>
+  </si>
+  <si>
+    <t>glass68</t>
+  </si>
+  <si>
+    <t>iphone200</t>
+  </si>
+  <si>
+    <t>glass69</t>
+  </si>
+  <si>
+    <t>iphone203</t>
+  </si>
+  <si>
+    <t>glass70</t>
+  </si>
+  <si>
+    <t>iphone206</t>
+  </si>
+  <si>
+    <t>glass71</t>
+  </si>
+  <si>
+    <t>iphone209</t>
+  </si>
+  <si>
+    <t>glass72</t>
+  </si>
+  <si>
+    <t>iphone212</t>
+  </si>
+  <si>
+    <t>glass73</t>
+  </si>
+  <si>
+    <t>iphone215</t>
+  </si>
+  <si>
+    <t>glass74</t>
+  </si>
+  <si>
+    <t>iphone218</t>
+  </si>
+  <si>
+    <t>glass75</t>
+  </si>
+  <si>
+    <t>iphone221</t>
+  </si>
+  <si>
+    <t>glass76</t>
+  </si>
+  <si>
+    <t>iphone224</t>
+  </si>
+  <si>
+    <t>glass77</t>
+  </si>
+  <si>
+    <t>iphone227</t>
+  </si>
+  <si>
+    <t>glass78</t>
+  </si>
+  <si>
+    <t>iphone230</t>
+  </si>
+  <si>
+    <t>glass79</t>
+  </si>
+  <si>
+    <t>iphone233</t>
+  </si>
+  <si>
+    <t>glass80</t>
+  </si>
+  <si>
+    <t>iphone236</t>
+  </si>
+  <si>
+    <t>glass81</t>
+  </si>
+  <si>
+    <t>iphone239</t>
+  </si>
+  <si>
+    <t>glass82</t>
+  </si>
+  <si>
+    <t>iphone242</t>
+  </si>
+  <si>
+    <t>glass83</t>
+  </si>
+  <si>
+    <t>iphone245</t>
+  </si>
+  <si>
+    <t>glass84</t>
+  </si>
+  <si>
+    <t>iphone248</t>
+  </si>
+  <si>
+    <t>glass85</t>
+  </si>
+  <si>
+    <t>iphone251</t>
+  </si>
+  <si>
+    <t>glass86</t>
+  </si>
+  <si>
+    <t>iphone254</t>
+  </si>
+  <si>
+    <t>glass87</t>
+  </si>
+  <si>
+    <t>iphone257</t>
+  </si>
+  <si>
+    <t>glass88</t>
+  </si>
+  <si>
+    <t>iphone260</t>
+  </si>
+  <si>
+    <t>glass89</t>
+  </si>
+  <si>
+    <t>iphone263</t>
+  </si>
+  <si>
+    <t>glass90</t>
+  </si>
+  <si>
+    <t>iphone266</t>
+  </si>
+  <si>
+    <t>glass91</t>
+  </si>
+  <si>
+    <t>iphone269</t>
+  </si>
+  <si>
+    <t>glass92</t>
+  </si>
+  <si>
+    <t>iphone272</t>
+  </si>
+  <si>
+    <t>glass93</t>
+  </si>
+  <si>
+    <t>iphone275</t>
+  </si>
+  <si>
+    <t>glass94</t>
+  </si>
+  <si>
+    <t>iphone278</t>
+  </si>
+  <si>
+    <t>glass95</t>
+  </si>
+  <si>
+    <t>iphone281</t>
+  </si>
+  <si>
+    <t>glass96</t>
+  </si>
+  <si>
+    <t>iphone284</t>
+  </si>
+  <si>
+    <t>glass97</t>
+  </si>
+  <si>
+    <t>iphone287</t>
+  </si>
+  <si>
+    <t>glass98</t>
+  </si>
+  <si>
+    <t>iphone290</t>
+  </si>
+  <si>
+    <t>glass99</t>
+  </si>
+  <si>
+    <t>iphone293</t>
+  </si>
+  <si>
+    <t>glass100</t>
+  </si>
+  <si>
+    <t>iphone296</t>
+  </si>
+  <si>
+    <t>glass101</t>
+  </si>
+  <si>
+    <t>iphone299</t>
+  </si>
+  <si>
+    <t>glass102</t>
+  </si>
+  <si>
+    <t>iphone302</t>
+  </si>
+  <si>
+    <t>glass103</t>
+  </si>
+  <si>
+    <t>iphone305</t>
+  </si>
+  <si>
+    <t>glass104</t>
+  </si>
+  <si>
+    <t>iphone308</t>
+  </si>
+  <si>
+    <t>glass105</t>
+  </si>
+  <si>
+    <t>iphone311</t>
+  </si>
+  <si>
+    <t>glass106</t>
+  </si>
+  <si>
+    <t>iphone314</t>
+  </si>
+  <si>
+    <t>glass107</t>
+  </si>
+  <si>
+    <t>iphone317</t>
+  </si>
+  <si>
+    <t>glass108</t>
+  </si>
+  <si>
+    <t>iphone320</t>
+  </si>
+  <si>
+    <t>glass109</t>
+  </si>
+  <si>
+    <t>iphone323</t>
+  </si>
+  <si>
+    <t>glass110</t>
+  </si>
+  <si>
+    <t>iphone326</t>
+  </si>
+  <si>
+    <t>glass111</t>
+  </si>
+  <si>
+    <t>iphone329</t>
+  </si>
+  <si>
+    <t>glass112</t>
+  </si>
+  <si>
+    <t>iphone332</t>
   </si>
 </sst>
 </file>
@@ -439,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +1133,7 @@
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.93230104167</v>
+        <v>43984.968629861112</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -515,7 +1157,7 @@
       </c>
       <c r="F3" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.93230104167</v>
+        <v>43984.968629861112</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -539,7 +1181,7 @@
       </c>
       <c r="F4" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.93230104167</v>
+        <v>43984.968629861112</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -563,7 +1205,7 @@
       </c>
       <c r="F5" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.93230104167</v>
+        <v>43984.968629861112</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -587,9 +1229,2577 @@
       </c>
       <c r="F6" s="4">
         <f ca="1">NOW()</f>
-        <v>43979.93230104167</v>
+        <v>43984.968629861112</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F70" ca="1" si="0">NOW()</f>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" ref="F71:F113" ca="1" si="1">NOW()</f>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F98" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43984.968629861112</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>US</t>
   </si>
@@ -57,9 +57,6 @@
     <t>fb01</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
     <t>glass01</t>
   </si>
   <si>
@@ -94,6 +91,60 @@
   </si>
   <si>
     <t>glass12</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>glass13</t>
+  </si>
+  <si>
+    <t>glass14</t>
+  </si>
+  <si>
+    <t>glass15</t>
+  </si>
+  <si>
+    <t>glass16</t>
+  </si>
+  <si>
+    <t>glass17</t>
+  </si>
+  <si>
+    <t>glass18</t>
+  </si>
+  <si>
+    <t>glass19</t>
+  </si>
+  <si>
+    <t>glass20</t>
+  </si>
+  <si>
+    <t>glass21</t>
+  </si>
+  <si>
+    <t>glass22</t>
+  </si>
+  <si>
+    <t>glass23</t>
+  </si>
+  <si>
+    <t>glass24</t>
+  </si>
+  <si>
+    <t>glass25</t>
+  </si>
+  <si>
+    <t>glass26</t>
+  </si>
+  <si>
+    <t>glass27</t>
+  </si>
+  <si>
+    <t>glass28</t>
+  </si>
+  <si>
+    <t>glass29</t>
   </si>
 </sst>
 </file>
@@ -460,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +547,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -512,15 +563,15 @@
       </c>
       <c r="F2" s="4">
         <f ca="1">NOW()</f>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -535,16 +586,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F13" ca="1" si="0">NOW()</f>
-        <v>43986.993001620373</v>
+        <f t="shared" ref="F3:F30" ca="1" si="0">NOW()</f>
+        <v>43987.948940393515</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -556,19 +607,19 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -584,15 +635,15 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -608,15 +659,15 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -632,15 +683,15 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -656,15 +707,15 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -680,15 +731,15 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -704,15 +755,15 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -728,15 +779,15 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -752,15 +803,15 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
@@ -776,10 +827,418 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43986.993001620373</v>
+        <v>43987.948940393515</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43987.948940393515</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>US</t>
   </si>
@@ -47,129 +47,59 @@
     <t>case</t>
   </si>
   <si>
-    <t>PKE127609786-Nhu May</t>
-  </si>
-  <si>
-    <t>vn</t>
-  </si>
-  <si>
-    <t>J33113455</t>
-  </si>
-  <si>
-    <t>PKE127609439-Nguyên thi huyen</t>
-  </si>
-  <si>
-    <t>h11111313</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S9</t>
-  </si>
-  <si>
-    <t>PKE127609788-Lê Thị Hạnh</t>
-  </si>
-  <si>
-    <t>H262151734</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Note 10</t>
-  </si>
-  <si>
-    <t>PKE127609790-Diem Nguyen</t>
-  </si>
-  <si>
-    <t>Sp181233</t>
-  </si>
-  <si>
-    <t>iPhone 6/6S Plus</t>
-  </si>
-  <si>
-    <t>iPhone XS Max</t>
-  </si>
-  <si>
-    <t>DB01917 - Chị Loan Mai</t>
-  </si>
-  <si>
-    <t>D91151539</t>
-  </si>
-  <si>
-    <t>IP 11 PRO MAX</t>
-  </si>
-  <si>
-    <t>NH9117186</t>
-  </si>
-  <si>
-    <t>DB01918 - Chị Hằng</t>
-  </si>
-  <si>
-    <t>J9214122</t>
-  </si>
-  <si>
-    <t>IP X</t>
-  </si>
-  <si>
-    <t>HTV4126665</t>
-  </si>
-  <si>
-    <t>mazimum-047245</t>
-  </si>
-  <si>
-    <t>iPhone 11</t>
-  </si>
-  <si>
-    <t>HTV2449861</t>
-  </si>
-  <si>
-    <t>US191PC-05619</t>
-  </si>
-  <si>
-    <t>iPhone XR</t>
-  </si>
-  <si>
-    <t>DB01919 - Chang Phạm</t>
-  </si>
-  <si>
-    <t>SS NOTE 10</t>
-  </si>
-  <si>
-    <t>DB01920 - Chị Minh Phương</t>
-  </si>
-  <si>
-    <t>SP181233</t>
-  </si>
-  <si>
-    <t>SS S9 PLUS</t>
-  </si>
-  <si>
-    <t>TR6117178</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>iPhone 7plus</t>
+    <t>iPhone 7 Plus</t>
+  </si>
+  <si>
+    <t>Yen 3668182</t>
+  </si>
+  <si>
+    <t>XZ8GP1</t>
+  </si>
+  <si>
+    <t>1THV2805</t>
+  </si>
+  <si>
+    <t>THV270501</t>
+  </si>
+  <si>
+    <t>2THV2805</t>
+  </si>
+  <si>
+    <t>huuvien1504b</t>
+  </si>
+  <si>
+    <t>iphone 11</t>
+  </si>
+  <si>
+    <t>TUAN04</t>
+  </si>
+  <si>
+    <t>PCT270501</t>
+  </si>
+  <si>
+    <t>#TH00727</t>
+  </si>
+  <si>
+    <t>TH00270</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>note10</t>
+  </si>
+  <si>
+    <t>note 10 plus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,20 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,35 +444,35 @@
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -562,22 +481,22 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
         <f ca="1">NOW()</f>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43990.500678240744</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -586,383 +505,180 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F37" ca="1" si="0">NOW()</f>
+        <v>43990.500678240744</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F14" ca="1" si="0">NOW()</f>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43990.500678240744</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43990.500678240744</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43990.500678240744</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43988.717767824077</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP COMPUTER\Desktop\checkingv2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>US</t>
   </si>
@@ -47,9 +42,6 @@
     <t>case</t>
   </si>
   <si>
-    <t>iPhone 7 Plus</t>
-  </si>
-  <si>
     <t>Yen 3668182</t>
   </si>
   <si>
@@ -60,27 +52,6 @@
   </si>
   <si>
     <t>THV270501</t>
-  </si>
-  <si>
-    <t>2THV2805</t>
-  </si>
-  <si>
-    <t>huuvien1504b</t>
-  </si>
-  <si>
-    <t>iphone 11</t>
-  </si>
-  <si>
-    <t>TUAN04</t>
-  </si>
-  <si>
-    <t>PCT270501</t>
-  </si>
-  <si>
-    <t>#TH00727</t>
-  </si>
-  <si>
-    <t>TH00270</t>
   </si>
   <si>
     <t>silicon</t>
@@ -95,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +406,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +440,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -478,22 +449,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">NOW()</f>
-        <v>43990.500678240744</v>
+        <v>43997.952874768518</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -502,90 +473,27 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" ca="1" si="0">NOW()</f>
+        <v>43997.952874768518</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F37" ca="1" si="0">NOW()</f>
-        <v>43990.500678240744</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43990.500678240744</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43990.500678240744</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43990.500678240744</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingv2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -11,15 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>US</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>sku</t>
   </si>
@@ -42,31 +44,58 @@
     <t>case</t>
   </si>
   <si>
-    <t>Yen 3668182</t>
-  </si>
-  <si>
-    <t>XZ8GP1</t>
-  </si>
-  <si>
-    <t>1THV2805</t>
-  </si>
-  <si>
-    <t>THV270501</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>note10</t>
-  </si>
-  <si>
-    <t>note 10 plus</t>
+    <t>PKE127349707-Dương Bảo Phương</t>
+  </si>
+  <si>
+    <t>nh18210113</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 10</t>
+  </si>
+  <si>
+    <t>PKE127349747-Nguyễn Thu Hương</t>
+  </si>
+  <si>
+    <t>h13312586</t>
+  </si>
+  <si>
+    <t>iPhone X</t>
+  </si>
+  <si>
+    <t>iPhone 6/6S Plus</t>
+  </si>
+  <si>
+    <t>PKE127349711-Vệ Tử Phu</t>
+  </si>
+  <si>
+    <t>h18292916</t>
+  </si>
+  <si>
+    <t>iPhone 7/8 Plus</t>
+  </si>
+  <si>
+    <t>PKE127349712-Bích Thủy Lee</t>
+  </si>
+  <si>
+    <t>j9214152</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A6 Plus</t>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>led</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,49 +446,49 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1">
-        <f ca="1">NOW()</f>
-        <v>43997.952874768518</v>
+        <f t="shared" ref="F2:F6" ca="1" si="0">NOW()</f>
+        <v>43998.599021064816</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -467,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -476,24 +505,87 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43998.599021064816</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43998.599021064816</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" ca="1" si="0">NOW()</f>
-        <v>43997.952874768518</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43998.599021064816</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43998.599021064816</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
@@ -572,21 +664,6 @@
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>sku</t>
   </si>
@@ -44,52 +44,52 @@
     <t>case</t>
   </si>
   <si>
-    <t>PKE127349707-Dương Bảo Phương</t>
-  </si>
-  <si>
-    <t>nh18210113</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Note 10</t>
-  </si>
-  <si>
-    <t>PKE127349747-Nguyễn Thu Hương</t>
-  </si>
-  <si>
     <t>h13312586</t>
   </si>
   <si>
-    <t>iPhone X</t>
-  </si>
-  <si>
     <t>iPhone 6/6S Plus</t>
   </si>
   <si>
-    <t>PKE127349711-Vệ Tử Phu</t>
-  </si>
-  <si>
-    <t>h18292916</t>
-  </si>
-  <si>
     <t>iPhone 7/8 Plus</t>
   </si>
   <si>
-    <t>PKE127349712-Bích Thủy Lee</t>
-  </si>
-  <si>
-    <t>j9214152</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A6 Plus</t>
-  </si>
-  <si>
     <t>vn</t>
   </si>
   <si>
     <t>glass</t>
   </si>
   <si>
-    <t>led</t>
+    <t>PKE127349717-Đỗ Phấn</t>
+  </si>
+  <si>
+    <t>PKE127349751-Anh Thuy</t>
+  </si>
+  <si>
+    <t>nh81151776</t>
+  </si>
+  <si>
+    <t>iPhone XS Max</t>
+  </si>
+  <si>
+    <t>PKE127349718-Khánh Thủy</t>
+  </si>
+  <si>
+    <t>j23133816</t>
+  </si>
+  <si>
+    <t>PKE127349721-Dung Ha</t>
+  </si>
+  <si>
+    <t>h1829291</t>
+  </si>
+  <si>
+    <t>PKE127350222-Phuong Nhi</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>iPhone XS</t>
   </si>
 </sst>
 </file>
@@ -435,12 +435,12 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,126 +469,147 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F6" ca="1" si="0">NOW()</f>
-        <v>43998.599021064816</v>
+        <f ca="1">NOW()</f>
+        <v>43999.623252314814</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" ca="1" si="0">NOW()</f>
+        <v>43999.623252314814</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43998.599021064816</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43998.599021064816</v>
+        <v>43999.623252314814</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43998.599021064816</v>
+        <v>43999.623252314814</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43998.599021064816</v>
+        <v>43999.623252314814</v>
       </c>
       <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43999.623252314814</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
